--- a/templates/dataplant/Metabolite_extraction.xlsx
+++ b/templates/dataplant/Metabolite_extraction.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECE050D-4783-421E-9FFC-A46693DD5954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86445ACB-410B-4E10-AAC4-2B0844CE7B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="75">
   <si>
     <t>Source Name</t>
   </si>
@@ -291,21 +291,12 @@
     <t>Authors Role Term Source REF</t>
   </si>
   <si>
-    <t>DPBO</t>
-  </si>
-  <si>
     <t>Kuhl</t>
   </si>
   <si>
     <t>Martin</t>
   </si>
   <si>
-    <t>extraction protocol</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/DPBO_1000171</t>
-  </si>
-  <si>
     <t>Metabolomics</t>
   </si>
   <si>
@@ -355,6 +346,12 @@
   </si>
   <si>
     <t>Metabolite extraction</t>
+  </si>
+  <si>
+    <t>extraction</t>
+  </si>
+  <si>
+    <t>OBI:0302884</t>
   </si>
 </sst>
 </file>
@@ -1196,46 +1193,46 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
         <v>62</v>
-      </c>
-      <c r="D1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" t="s">
-        <v>65</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
       <c r="H1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" t="s">
         <v>66</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>67</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>68</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>69</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>70</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>71</v>
-      </c>
-      <c r="N1" t="s">
-        <v>72</v>
-      </c>
-      <c r="O1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P1" t="s">
-        <v>74</v>
       </c>
       <c r="Q1" t="s">
         <v>1</v>
@@ -1449,7 +1446,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1472,7 +1469,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1542,10 +1539,10 @@
         <v>16</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -1553,21 +1550,19 @@
         <v>17</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>54</v>
-      </c>
+      <c r="B14" s="7"/>
       <c r="C14" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -1584,7 +1579,7 @@
         <v>32</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -1595,7 +1590,7 @@
         <v>33</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">

--- a/templates/dataplant/Metabolite_extraction.xlsx
+++ b/templates/dataplant/Metabolite_extraction.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -146,7 +146,7 @@
     <t>Protocol REF</t>
   </si>
   <si>
-    <t>Parameter [bio entity]</t>
+    <t>Characteristic [bio entity]</t>
   </si>
   <si>
     <t>Term Source REF (DPBO:0000012)</t>
@@ -167,7 +167,7 @@
     <t>Term Accession Number (DPBO:0000013)</t>
   </si>
   <si>
-    <t>Parameter [extraction buffer]</t>
+    <t>Component [extraction buffer]</t>
   </si>
   <si>
     <t>Term Source REF (DPBO:0000050)</t>
@@ -200,10 +200,10 @@
     <t>total RNA</t>
   </si>
   <si>
-    <t>NFDI4PSO</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_1000088</t>
+    <t>EFO</t>
+  </si>
+  <si>
+    <t>https://bioregistry.io/EFO:0004964</t>
   </si>
   <si>
     <t>200</t>
@@ -219,9 +219,6 @@
   </si>
   <si>
     <t>Methanol:Chloroform:Water</t>
-  </si>
-  <si>
-    <t>user-specific</t>
   </si>
   <si>
     <t>1000</t>
@@ -309,14 +306,14 @@
   <tableColumns count="17">
     <tableColumn id="1" name="Input [Source Name]" totalsRowLabel="Total"/>
     <tableColumn id="2" name="Protocol REF" totalsRowFunction="none"/>
-    <tableColumn id="3" name="Parameter [bio entity]" totalsRowFunction="none"/>
+    <tableColumn id="3" name="Characteristic [bio entity]" totalsRowFunction="none"/>
     <tableColumn id="4" name="Term Source REF (DPBO:0000012)" totalsRowFunction="none"/>
     <tableColumn id="5" name="Term Accession Number (DPBO:0000012)" totalsRowFunction="none"/>
     <tableColumn id="6" name="Parameter [biosource amount]" totalsRowFunction="none"/>
     <tableColumn id="7" name="Unit" totalsRowFunction="none"/>
     <tableColumn id="8" name="Term Source REF (DPBO:0000013)" totalsRowFunction="none"/>
     <tableColumn id="9" name="Term Accession Number (DPBO:0000013)" totalsRowFunction="none"/>
-    <tableColumn id="10" name="Parameter [extraction buffer]" totalsRowFunction="none"/>
+    <tableColumn id="10" name="Component [extraction buffer]" totalsRowFunction="none"/>
     <tableColumn id="11" name="Term Source REF (DPBO:0000050)" totalsRowFunction="none"/>
     <tableColumn id="12" name="Term Accession Number (DPBO:0000050)" totalsRowFunction="none"/>
     <tableColumn id="13" name="Parameter [extraction buffer volume]" totalsRowFunction="none"/>
@@ -905,22 +902,22 @@
         <v>68</v>
       </c>
       <c r="K2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>59</v>
       </c>
       <c r="M2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" t="s">
         <v>70</v>
-      </c>
-      <c r="N2" t="s">
-        <v>71</v>
       </c>
       <c r="O2" t="s">
         <v>66</v>
       </c>
       <c r="P2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q2" t="s">
         <v>59</v>
